--- a/Dataset/unit_price.xlsx
+++ b/Dataset/unit_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARN\DATA SCIENCE\2 WORKSPACE\4 PROJECT\2 JABODETABEK HOUSE PRICING\jabodetabekhousepricing\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF8D27B-D887-45FA-B945-6913A41B426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7E037-B9D2-4348-882C-878553F8A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{999524BD-8F18-4386-B60C-3F1EC5491BF8}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2500000</v>
+        <v>4500000</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
